--- a/biology/Zoologie/Diasoma/Diasoma.xlsx
+++ b/biology/Zoologie/Diasoma/Diasoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diasomes
 Les Diasoma (Diasomes en français) étaient une super-classe de mollusques, réunissant ceux dont la tête a secondairement presque disparu, et dont le système nerveux est de nouveau réparti, c'est-à-dire scaphopodes et bivalves.
-L'hypothèse de l'existence de ce clade a été démentie par les recherches de génétique moléculaire[1].
+L'hypothèse de l'existence de ce clade a été démentie par les recherches de génétique moléculaire.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 mars 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 mars 2021) :
 classe des Bivalvia Linnaeus, 1758
 classe des Rostroconchia Pojeta, Runnegar, Morris &amp; Newell, 1972 †
 classe des Scaphopoda Bronn, 1862</t>
